--- a/data/results/virtual/results_questions-skill-model3b.xlsx
+++ b/data/results/virtual/results_questions-skill-model3b.xlsx
@@ -1157,7 +1157,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" t="n" s="58">
-        <v>1.0</v>
+        <v>0.286675448702665</v>
       </c>
       <c r="G4" t="n" s="58">
         <v>1.0</v>
@@ -1178,58 +1178,58 @@
         <v>1.0</v>
       </c>
       <c r="M4" t="n" s="58">
-        <v>1.0</v>
+        <v>0.24658226746188405</v>
       </c>
       <c r="N4" t="n" s="58">
-        <v>0.3459066544182769</v>
+        <v>0.2544801990159853</v>
       </c>
       <c r="O4" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2465822674618841</v>
       </c>
       <c r="P4" t="n" s="58">
-        <v>1.0</v>
+        <v>0.26704732075404225</v>
       </c>
       <c r="Q4" t="n" s="58">
-        <v>1.0</v>
+        <v>0.22472540861071474</v>
       </c>
       <c r="R4" t="n" s="58">
-        <v>1.0</v>
+        <v>0.22472540861071472</v>
       </c>
       <c r="S4" t="n" s="58">
-        <v>0.9999999973966743</v>
+        <v>0.9999999982879761</v>
       </c>
       <c r="T4" t="n" s="58">
-        <v>0.99999949421556</v>
+        <v>0.999999585969391</v>
       </c>
       <c r="U4" t="n" s="58">
-        <v>0.2556269759696565</v>
+        <v>0.2554430959415381</v>
       </c>
       <c r="V4" t="n" s="58">
-        <v>0.03874577830578256</v>
+        <v>0.038740663669028924</v>
       </c>
       <c r="W4" t="n" s="58">
-        <v>0.9999995012244566</v>
+        <v>0.9999996719904715</v>
       </c>
       <c r="X4" t="n" s="58">
-        <v>0.9999805617711405</v>
+        <v>0.999984024603044</v>
       </c>
       <c r="Y4" t="n" s="58">
-        <v>0.002708240045573415</v>
+        <v>0.0029519874704630696</v>
       </c>
       <c r="Z4" t="n" s="58">
-        <v>8.80717166723745E-7</v>
+        <v>1.2003549966160797E-6</v>
       </c>
       <c r="AA4" t="n" s="58">
-        <v>0.24288904780915174</v>
+        <v>0.4442403284432116</v>
       </c>
       <c r="AB4" t="n" s="58">
-        <v>0.002785676391878084</v>
+        <v>0.1395988703493227</v>
       </c>
       <c r="AC4" t="n" s="58">
-        <v>3.19557058550713E-8</v>
+        <v>1.9558162722229674E-5</v>
       </c>
       <c r="AD4" t="n" s="58">
-        <v>1.5237568923356322E-12</v>
+        <v>3.099287787354632E-9</v>
       </c>
       <c r="AE4" s="58"/>
     </row>
@@ -1745,7 +1745,7 @@
         <v>1.0</v>
       </c>
       <c r="F11" t="n" s="58">
-        <v>0.29132472242015406</v>
+        <v>0.2895660841169941</v>
       </c>
       <c r="G11" t="n" s="58">
         <v>1.0</v>
@@ -1763,61 +1763,61 @@
         <v>1.0</v>
       </c>
       <c r="L11" t="n" s="58">
-        <v>0.395119515330272</v>
+        <v>0.3942728562472331</v>
       </c>
       <c r="M11" t="n" s="58">
-        <v>0.34187038435722905</v>
+        <v>0.34211996823300483</v>
       </c>
       <c r="N11" t="n" s="58">
-        <v>0.3548528336673633</v>
+        <v>0.3550983078630353</v>
       </c>
       <c r="O11" t="n" s="58">
-        <v>0.3418703843572291</v>
+        <v>0.34211996823300483</v>
       </c>
       <c r="P11" t="n" s="58">
-        <v>0.32545627001088345</v>
+        <v>0.32562116412072367</v>
       </c>
       <c r="Q11" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="R11" t="n" s="58">
-        <v>0.3245055694152163</v>
+        <v>0.321447780983457</v>
       </c>
       <c r="S11" t="n" s="58">
-        <v>0.999998219996532</v>
+        <v>0.9999998957494398</v>
       </c>
       <c r="T11" t="n" s="58">
-        <v>0.18684099660072664</v>
+        <v>0.596637782496324</v>
       </c>
       <c r="U11" t="n" s="58">
-        <v>0.011299653841173669</v>
+        <v>0.012834630609116712</v>
       </c>
       <c r="V11" t="n" s="58">
-        <v>5.346376936677979E-4</v>
+        <v>1.7686068984754463E-4</v>
       </c>
       <c r="W11" t="n" s="58">
-        <v>0.9923650419535021</v>
+        <v>0.9931358406522078</v>
       </c>
       <c r="X11" t="n" s="58">
-        <v>0.09064027449615698</v>
+        <v>0.1674593256727957</v>
       </c>
       <c r="Y11" t="n" s="58">
-        <v>5.04956939653207E-5</v>
+        <v>1.554932270341582E-5</v>
       </c>
       <c r="Z11" t="n" s="58">
-        <v>2.8952464021999172E-8</v>
+        <v>2.3593975569532186E-9</v>
       </c>
       <c r="AA11" t="n" s="58">
-        <v>0.12470096485289293</v>
+        <v>0.12273547860006527</v>
       </c>
       <c r="AB11" t="n" s="58">
-        <v>4.449490804223275E-4</v>
+        <v>3.208130210814559E-4</v>
       </c>
       <c r="AC11" t="n" s="58">
-        <v>4.1195134784134235E-8</v>
+        <v>4.8320152418500704E-9</v>
       </c>
       <c r="AD11" t="n" s="58">
-        <v>1.2229803914728275E-11</v>
+        <v>4.041767130036875E-13</v>
       </c>
       <c r="AE11" s="58"/>
     </row>
@@ -2081,10 +2081,10 @@
         <v>1.0</v>
       </c>
       <c r="F15" t="n" s="58">
-        <v>1.0</v>
+        <v>0.5365617908257946</v>
       </c>
       <c r="G15" t="n" s="58">
-        <v>1.0</v>
+        <v>0.5365617908257945</v>
       </c>
       <c r="H15" t="n" s="58">
         <v>1.0</v>
@@ -2093,16 +2093,16 @@
         <v>1.0</v>
       </c>
       <c r="J15" t="n" s="58">
-        <v>1.0</v>
+        <v>0.535407719195336</v>
       </c>
       <c r="K15" t="n" s="58">
-        <v>0.44034594841165986</v>
+        <v>0.442629204684146</v>
       </c>
       <c r="L15" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4766488421627019</v>
       </c>
       <c r="M15" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35499867952925496</v>
       </c>
       <c r="N15" t="n" s="58">
         <v>1.0</v>
@@ -2111,49 +2111,49 @@
         <v>1.0</v>
       </c>
       <c r="P15" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3637447334823104</v>
       </c>
       <c r="Q15" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3416890508097997</v>
       </c>
       <c r="R15" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="S15" t="n" s="58">
-        <v>0.9999999994763293</v>
+        <v>0.9999999996296772</v>
       </c>
       <c r="T15" t="n" s="58">
-        <v>0.9394679679266016</v>
+        <v>0.9571937207551494</v>
       </c>
       <c r="U15" t="n" s="58">
-        <v>0.7529590400662048</v>
+        <v>0.7769857602674828</v>
       </c>
       <c r="V15" t="n" s="58">
-        <v>0.44008480094008406</v>
+        <v>0.45813745695745506</v>
       </c>
       <c r="W15" t="n" s="58">
-        <v>0.9999999983895548</v>
+        <v>0.9999999988611455</v>
       </c>
       <c r="X15" t="n" s="58">
-        <v>0.7693100205070887</v>
+        <v>0.836863568875592</v>
       </c>
       <c r="Y15" t="n" s="58">
-        <v>0.3843963643562638</v>
+        <v>0.420102995315343</v>
       </c>
       <c r="Z15" t="n" s="58">
-        <v>0.12806531654320813</v>
+        <v>0.13998316701354988</v>
       </c>
       <c r="AA15" t="n" s="58">
-        <v>0.9999999960690646</v>
+        <v>0.9999999972201707</v>
       </c>
       <c r="AB15" t="n" s="58">
-        <v>0.43360820631027946</v>
+        <v>0.5994661924900285</v>
       </c>
       <c r="AC15" t="n" s="58">
-        <v>0.0010135974143445825</v>
+        <v>0.004773180859336578</v>
       </c>
       <c r="AD15" t="n" s="58">
-        <v>7.948913729490098E-7</v>
+        <v>1.7891488684358745E-5</v>
       </c>
       <c r="AE15" s="58"/>
     </row>
@@ -2351,61 +2351,61 @@
         <v>1.0</v>
       </c>
       <c r="L18" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4111955366152009</v>
       </c>
       <c r="M18" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3061558202491669</v>
       </c>
       <c r="N18" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="O18" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3061558202491668</v>
       </c>
       <c r="P18" t="n" s="58">
-        <v>1.0</v>
+        <v>0.32663703346885703</v>
       </c>
       <c r="Q18" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2901798732658224</v>
       </c>
       <c r="R18" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2901798732658224</v>
       </c>
       <c r="S18" t="n" s="58">
-        <v>0.9999338341277304</v>
+        <v>0.9999526383793087</v>
       </c>
       <c r="T18" t="n" s="58">
-        <v>0.9999114606353783</v>
+        <v>0.9999363712618397</v>
       </c>
       <c r="U18" t="n" s="58">
-        <v>0.24663336854804227</v>
+        <v>0.24613573305554454</v>
       </c>
       <c r="V18" t="n" s="58">
-        <v>0.03746872914506678</v>
+        <v>0.0374250139858619</v>
       </c>
       <c r="W18" t="n" s="58">
-        <v>0.9998080193980379</v>
+        <v>0.9998625800259512</v>
       </c>
       <c r="X18" t="n" s="58">
-        <v>0.9986164542472492</v>
+        <v>0.9989901954378408</v>
       </c>
       <c r="Y18" t="n" s="58">
-        <v>0.020434214829891797</v>
+        <v>0.021078465001416195</v>
       </c>
       <c r="Z18" t="n" s="58">
-        <v>1.6362819818979457E-4</v>
+        <v>1.8323826735351526E-4</v>
       </c>
       <c r="AA18" t="n" s="58">
-        <v>0.7034887569582176</v>
+        <v>0.7876137170186984</v>
       </c>
       <c r="AB18" t="n" s="58">
-        <v>0.5446474188535169</v>
+        <v>0.6668680619449125</v>
       </c>
       <c r="AC18" t="n" s="58">
-        <v>4.8479120046541634E-4</v>
+        <v>0.0011330845340085454</v>
       </c>
       <c r="AD18" t="n" s="58">
-        <v>4.0349134880639155E-7</v>
+        <v>1.864105500366368E-6</v>
       </c>
       <c r="AE18" s="58"/>
     </row>
@@ -2435,61 +2435,61 @@
         <v>1.0</v>
       </c>
       <c r="L19" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4027703283513124</v>
       </c>
       <c r="M19" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35238644710692824</v>
       </c>
       <c r="N19" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="O19" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3523864471069283</v>
       </c>
       <c r="P19" t="n" s="58">
-        <v>1.0</v>
+        <v>0.381860218637611</v>
       </c>
       <c r="Q19" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3181016771320578</v>
       </c>
       <c r="R19" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3181016771320578</v>
       </c>
       <c r="S19" t="n" s="58">
-        <v>0.9999990872292867</v>
+        <v>0.9999992169365811</v>
       </c>
       <c r="T19" t="n" s="58">
-        <v>0.9999865036635559</v>
+        <v>0.9999875759297423</v>
       </c>
       <c r="U19" t="n" s="58">
-        <v>0.337945702436678</v>
+        <v>0.3379496755141942</v>
       </c>
       <c r="V19" t="n" s="58">
-        <v>0.07897388932990368</v>
+        <v>0.07898672307562547</v>
       </c>
       <c r="W19" t="n" s="58">
-        <v>0.9999980926806692</v>
+        <v>0.9999983637161289</v>
       </c>
       <c r="X19" t="n" s="58">
-        <v>0.9998421634847462</v>
+        <v>0.9998538903248498</v>
       </c>
       <c r="Y19" t="n" s="58">
-        <v>0.015775256358263327</v>
+        <v>0.01582830287815389</v>
       </c>
       <c r="Z19" t="n" s="58">
-        <v>5.316340684436583E-5</v>
+        <v>5.490343643461157E-5</v>
       </c>
       <c r="AA19" t="n" s="58">
-        <v>0.9673316668366078</v>
+        <v>0.9716154508838387</v>
       </c>
       <c r="AB19" t="n" s="58">
-        <v>0.03353160927736976</v>
+        <v>0.09323085291582867</v>
       </c>
       <c r="AC19" t="n" s="58">
-        <v>5.718203916244743E-6</v>
+        <v>4.4544839838034714E-5</v>
       </c>
       <c r="AD19" t="n" s="58">
-        <v>2.080739097950032E-9</v>
+        <v>3.368062185722897E-8</v>
       </c>
       <c r="AE19" s="58"/>
     </row>
@@ -2858,58 +2858,58 @@
         <v>1.0</v>
       </c>
       <c r="M24" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2571168504498379</v>
       </c>
       <c r="N24" t="n" s="58">
-        <v>1.0</v>
+        <v>0.26523216425614426</v>
       </c>
       <c r="O24" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2571168504498379</v>
       </c>
       <c r="P24" t="n" s="58">
-        <v>1.0</v>
+        <v>0.27230232979706825</v>
       </c>
       <c r="Q24" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2358269770129707</v>
       </c>
       <c r="R24" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2358269770129707</v>
       </c>
       <c r="S24" t="n" s="58">
-        <v>0.9999966388343178</v>
+        <v>0.9999973003110338</v>
       </c>
       <c r="T24" t="n" s="58">
-        <v>0.9630388518830293</v>
+        <v>0.9627203440262587</v>
       </c>
       <c r="U24" t="n" s="58">
-        <v>0.44459085405069965</v>
+        <v>0.4468107919666916</v>
       </c>
       <c r="V24" t="n" s="58">
-        <v>0.1539574736327011</v>
+        <v>0.15506386257243493</v>
       </c>
       <c r="W24" t="n" s="58">
-        <v>0.9999900440502567</v>
+        <v>0.9999920033791215</v>
       </c>
       <c r="X24" t="n" s="58">
-        <v>0.9354069612243129</v>
+        <v>0.9335907319478933</v>
       </c>
       <c r="Y24" t="n" s="58">
-        <v>0.0023932845723057404</v>
+        <v>0.002434099996938163</v>
       </c>
       <c r="Z24" t="n" s="58">
-        <v>1.887587668743594E-6</v>
+        <v>2.0133446639355277E-6</v>
       </c>
       <c r="AA24" t="n" s="58">
-        <v>0.037290843039962926</v>
+        <v>0.22675180741821127</v>
       </c>
       <c r="AB24" t="n" s="58">
-        <v>4.4944360870291235E-4</v>
+        <v>0.04823640868722773</v>
       </c>
       <c r="AC24" t="n" s="58">
-        <v>3.5810960417687454E-8</v>
+        <v>1.6325649199504102E-5</v>
       </c>
       <c r="AD24" t="n" s="58">
-        <v>8.715912900639232E-12</v>
+        <v>6.831103180068389E-9</v>
       </c>
       <c r="AE24" s="58"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>1.0</v>
       </c>
       <c r="M27" t="n" s="58">
-        <v>1.0</v>
+        <v>0.33686017352227554</v>
       </c>
       <c r="N27" t="n" s="58">
-        <v>1.0</v>
+        <v>0.33563115737114135</v>
       </c>
       <c r="O27" t="n" s="58">
         <v>1.0</v>
@@ -3125,43 +3125,43 @@
         <v>1.0</v>
       </c>
       <c r="R27" t="n" s="58">
-        <v>1.0</v>
+        <v>0.31619211145016385</v>
       </c>
       <c r="S27" t="n" s="58">
-        <v>0.9999989789180722</v>
+        <v>0.9999990681981745</v>
       </c>
       <c r="T27" t="n" s="58">
-        <v>0.8009733353498554</v>
+        <v>0.8011710996685056</v>
       </c>
       <c r="U27" t="n" s="58">
-        <v>0.532173025059799</v>
+        <v>0.5323277065444657</v>
       </c>
       <c r="V27" t="n" s="58">
-        <v>0.2656719389930602</v>
+        <v>0.2657527055169029</v>
       </c>
       <c r="W27" t="n" s="58">
-        <v>0.9999987502079528</v>
+        <v>0.9999988594857284</v>
       </c>
       <c r="X27" t="n" s="58">
-        <v>0.23932385045240598</v>
+        <v>0.23978227920449444</v>
       </c>
       <c r="Y27" t="n" s="58">
-        <v>0.0012100677886333997</v>
+        <v>0.0012208274653246706</v>
       </c>
       <c r="Z27" t="n" s="58">
-        <v>3.397238083435968E-6</v>
+        <v>3.4569080403453585E-6</v>
       </c>
       <c r="AA27" t="n" s="58">
-        <v>0.9535344576616186</v>
+        <v>0.9575972544456267</v>
       </c>
       <c r="AB27" t="n" s="58">
-        <v>0.005241035792133932</v>
+        <v>0.006868474949701305</v>
       </c>
       <c r="AC27" t="n" s="58">
-        <v>1.333516999543842E-6</v>
+        <v>2.1795551321417926E-6</v>
       </c>
       <c r="AD27" t="n" s="58">
-        <v>8.292736721715376E-10</v>
+        <v>1.5724185074762728E-9</v>
       </c>
       <c r="AE27" s="58"/>
     </row>
@@ -3275,61 +3275,61 @@
         <v>1.0</v>
       </c>
       <c r="L29" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4173889306101943</v>
       </c>
       <c r="M29" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3550019391410709</v>
       </c>
       <c r="N29" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="O29" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3550019391410709</v>
       </c>
       <c r="P29" t="n" s="58">
-        <v>1.0</v>
+        <v>0.33090749671818503</v>
       </c>
       <c r="Q29" t="n" s="58">
-        <v>1.0</v>
+        <v>0.21267373953142651</v>
       </c>
       <c r="R29" t="n" s="58">
-        <v>1.0</v>
+        <v>0.21267373953142651</v>
       </c>
       <c r="S29" t="n" s="58">
-        <v>0.9999999939023967</v>
+        <v>0.9999999975105345</v>
       </c>
       <c r="T29" t="n" s="58">
-        <v>0.7392047287707247</v>
+        <v>0.7394164075448106</v>
       </c>
       <c r="U29" t="n" s="58">
-        <v>0.48869720493634666</v>
+        <v>0.48890774420625477</v>
       </c>
       <c r="V29" t="n" s="58">
-        <v>0.24332119644615677</v>
+        <v>0.24344376793559516</v>
       </c>
       <c r="W29" t="n" s="58">
-        <v>0.9999999812480275</v>
+        <v>0.9999999923441415</v>
       </c>
       <c r="X29" t="n" s="58">
-        <v>0.007458694333205799</v>
+        <v>0.007460749781059298</v>
       </c>
       <c r="Y29" t="n" s="58">
-        <v>1.1077553216304232E-5</v>
+        <v>1.1730238440046375E-5</v>
       </c>
       <c r="Z29" t="n" s="58">
-        <v>1.5831500253215456E-8</v>
+        <v>1.792791119395256E-8</v>
       </c>
       <c r="AA29" t="n" s="58">
-        <v>0.9787298391440676</v>
+        <v>0.9913160242725808</v>
       </c>
       <c r="AB29" t="n" s="58">
-        <v>7.619359769257999E-5</v>
+        <v>2.2357818466501298E-4</v>
       </c>
       <c r="AC29" t="n" s="58">
-        <v>6.372846059744818E-9</v>
+        <v>5.1765490244200986E-8</v>
       </c>
       <c r="AD29" t="n" s="58">
-        <v>1.3085086937460148E-12</v>
+        <v>2.7746628388320113E-11</v>
       </c>
       <c r="AE29" s="58"/>
     </row>
@@ -3359,10 +3359,10 @@
         <v>1.0</v>
       </c>
       <c r="L30" t="n" s="58">
-        <v>1.0</v>
+        <v>0.41499637486067037</v>
       </c>
       <c r="M30" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3448616267937919</v>
       </c>
       <c r="N30" t="n" s="58">
         <v>1.0</v>
@@ -3371,49 +3371,49 @@
         <v>1.0</v>
       </c>
       <c r="P30" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3521944893104435</v>
       </c>
       <c r="Q30" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35818260511539657</v>
       </c>
       <c r="R30" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="S30" t="n" s="58">
-        <v>0.999999997946259</v>
+        <v>0.9999999980506863</v>
       </c>
       <c r="T30" t="n" s="58">
-        <v>0.746239726637322</v>
+        <v>0.74630654818614</v>
       </c>
       <c r="U30" t="n" s="58">
-        <v>0.4936597555355522</v>
+        <v>0.4937074783693495</v>
       </c>
       <c r="V30" t="n" s="58">
-        <v>0.2458446994074215</v>
+        <v>0.245868799836137</v>
       </c>
       <c r="W30" t="n" s="58">
-        <v>0.9999999936841263</v>
+        <v>0.9999999940052714</v>
       </c>
       <c r="X30" t="n" s="58">
-        <v>0.03291634629377601</v>
+        <v>0.03317065814423656</v>
       </c>
       <c r="Y30" t="n" s="58">
-        <v>3.3824552707863625E-4</v>
+        <v>3.455019366034648E-4</v>
       </c>
       <c r="Z30" t="n" s="58">
-        <v>2.931327101271125E-6</v>
+        <v>3.0338282635662722E-6</v>
       </c>
       <c r="AA30" t="n" s="58">
-        <v>0.9998879686004133</v>
+        <v>0.9998936507904564</v>
       </c>
       <c r="AB30" t="n" s="58">
-        <v>6.020507724032848E-4</v>
+        <v>7.97123181013692E-4</v>
       </c>
       <c r="AC30" t="n" s="58">
-        <v>1.2931840872093297E-7</v>
+        <v>2.6264821100484673E-7</v>
       </c>
       <c r="AD30" t="n" s="58">
-        <v>4.4523407384926146E-11</v>
+        <v>1.47084033816736E-10</v>
       </c>
       <c r="AE30" s="58"/>
     </row>
@@ -3527,13 +3527,13 @@
         <v>1.0</v>
       </c>
       <c r="L32" t="n" s="58">
-        <v>0.4240428432100386</v>
+        <v>0.4243414651554275</v>
       </c>
       <c r="M32" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3638306349727553</v>
       </c>
       <c r="N32" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35399180944482195</v>
       </c>
       <c r="O32" t="n" s="58">
         <v>1.0</v>
@@ -3542,46 +3542,46 @@
         <v>1.0</v>
       </c>
       <c r="Q32" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3415539372239062</v>
       </c>
       <c r="R32" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="S32" t="n" s="58">
-        <v>0.9997366557758912</v>
+        <v>0.9997522045155498</v>
       </c>
       <c r="T32" t="n" s="58">
-        <v>0.8340656234008522</v>
+        <v>0.835633700391901</v>
       </c>
       <c r="U32" t="n" s="58">
-        <v>0.635943888148892</v>
+        <v>0.6390419211897753</v>
       </c>
       <c r="V32" t="n" s="58">
-        <v>0.39854422996038685</v>
+        <v>0.4024648933330701</v>
       </c>
       <c r="W32" t="n" s="58">
-        <v>0.9993210212859751</v>
+        <v>0.9993611105011225</v>
       </c>
       <c r="X32" t="n" s="58">
-        <v>0.3714360499544632</v>
+        <v>0.3767721463120002</v>
       </c>
       <c r="Y32" t="n" s="58">
-        <v>0.24669408622973443</v>
+        <v>0.2526677584855373</v>
       </c>
       <c r="Z32" t="n" s="58">
-        <v>0.16207858687012985</v>
+        <v>0.16679715575412232</v>
       </c>
       <c r="AA32" t="n" s="58">
-        <v>0.738444022543759</v>
+        <v>0.7538882854354466</v>
       </c>
       <c r="AB32" t="n" s="58">
-        <v>0.05019882941694606</v>
+        <v>0.0606043279306928</v>
       </c>
       <c r="AC32" t="n" s="58">
-        <v>0.013137560656618792</v>
+        <v>0.019251120376497705</v>
       </c>
       <c r="AD32" t="n" s="58">
-        <v>3.8113247985135186E-4</v>
+        <v>7.313353965969801E-4</v>
       </c>
       <c r="AE32" s="58"/>
     </row>
@@ -3689,16 +3689,16 @@
         <v>1.0</v>
       </c>
       <c r="J34" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3021723706328436</v>
       </c>
       <c r="K34" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="L34" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3767901525300479</v>
       </c>
       <c r="M34" t="n" s="58">
-        <v>1.0</v>
+        <v>0.32204005335177016</v>
       </c>
       <c r="N34" t="n" s="58">
         <v>1.0</v>
@@ -3707,49 +3707,49 @@
         <v>1.0</v>
       </c>
       <c r="P34" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3402559388195555</v>
       </c>
       <c r="Q34" t="n" s="58">
-        <v>1.0</v>
+        <v>0.30212253773078895</v>
       </c>
       <c r="R34" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="S34" t="n" s="58">
-        <v>0.9999990671315121</v>
+        <v>0.9999994343383152</v>
       </c>
       <c r="T34" t="n" s="58">
-        <v>0.9970224227157855</v>
+        <v>0.9978895407099441</v>
       </c>
       <c r="U34" t="n" s="58">
-        <v>0.7963318014241582</v>
+        <v>0.8008734724893225</v>
       </c>
       <c r="V34" t="n" s="58">
-        <v>0.6496334860111656</v>
+        <v>0.65407139352025</v>
       </c>
       <c r="W34" t="n" s="58">
-        <v>0.999995643974431</v>
+        <v>0.9999973586450875</v>
       </c>
       <c r="X34" t="n" s="58">
-        <v>0.9908881741342431</v>
+        <v>0.9935409372622351</v>
       </c>
       <c r="Y34" t="n" s="58">
-        <v>0.13358154072583328</v>
+        <v>0.1495597713497309</v>
       </c>
       <c r="Z34" t="n" s="58">
-        <v>0.0078105132068393745</v>
+        <v>0.00996676775781767</v>
       </c>
       <c r="AA34" t="n" s="58">
-        <v>0.9979361046856469</v>
+        <v>0.9986535756116214</v>
       </c>
       <c r="AB34" t="n" s="58">
-        <v>0.9726481422631894</v>
+        <v>0.9796277977753285</v>
       </c>
       <c r="AC34" t="n" s="58">
-        <v>0.008659947776564193</v>
+        <v>0.013791836286097748</v>
       </c>
       <c r="AD34" t="n" s="58">
-        <v>1.2361210404461978E-5</v>
+        <v>3.7761710558148426E-5</v>
       </c>
       <c r="AE34" s="58"/>
     </row>
@@ -4184,7 +4184,7 @@
         <v>1.0</v>
       </c>
       <c r="G40" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4802985849391586</v>
       </c>
       <c r="H40" t="n" s="58">
         <v>1.0</v>
@@ -4199,10 +4199,10 @@
         <v>1.0</v>
       </c>
       <c r="L40" t="n" s="58">
-        <v>0.4472645838452326</v>
+        <v>0.47310786481066475</v>
       </c>
       <c r="M40" t="n" s="58">
-        <v>1.0</v>
+        <v>0.40265201598660194</v>
       </c>
       <c r="N40" t="n" s="58">
         <v>1.0</v>
@@ -4217,43 +4217,43 @@
         <v>1.0</v>
       </c>
       <c r="R40" t="n" s="58">
-        <v>1.0</v>
+        <v>0.14826844316977467</v>
       </c>
       <c r="S40" t="n" s="58">
-        <v>0.9997671702357488</v>
+        <v>0.9999068253003089</v>
       </c>
       <c r="T40" t="n" s="58">
-        <v>0.9996143978495919</v>
+        <v>0.9998451561659355</v>
       </c>
       <c r="U40" t="n" s="58">
-        <v>0.9994374926118004</v>
+        <v>0.9997731661420916</v>
       </c>
       <c r="V40" t="n" s="58">
-        <v>0.9992087548913642</v>
+        <v>0.999679723684835</v>
       </c>
       <c r="W40" t="n" s="58">
-        <v>0.9995192288074943</v>
+        <v>0.9998076031575005</v>
       </c>
       <c r="X40" t="n" s="58">
-        <v>0.9992770315049325</v>
+        <v>0.9997085923114578</v>
       </c>
       <c r="Y40" t="n" s="58">
-        <v>0.9990996814166868</v>
+        <v>0.9996355951029341</v>
       </c>
       <c r="Z40" t="n" s="58">
-        <v>0.9989814812661649</v>
+        <v>0.9995868677328457</v>
       </c>
       <c r="AA40" t="n" s="58">
-        <v>0.996356913589802</v>
+        <v>0.9985420958385178</v>
       </c>
       <c r="AB40" t="n" s="58">
-        <v>0.9958837290387655</v>
+        <v>0.9983204989445619</v>
       </c>
       <c r="AC40" t="n" s="58">
-        <v>0.9958379459538826</v>
+        <v>0.9982930028308974</v>
       </c>
       <c r="AD40" t="n" s="58">
-        <v>0.995832396931098</v>
+        <v>0.9982886712496162</v>
       </c>
       <c r="AE40" s="58"/>
     </row>
@@ -4433,10 +4433,10 @@
         <v>1.0</v>
       </c>
       <c r="F43" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4567748482976112</v>
       </c>
       <c r="G43" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4567748482976112</v>
       </c>
       <c r="H43" t="n" s="58">
         <v>1.0</v>
@@ -4454,58 +4454,58 @@
         <v>1.0</v>
       </c>
       <c r="M43" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3359640120807981</v>
       </c>
       <c r="N43" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="O43" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3359640120807981</v>
       </c>
       <c r="P43" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3536928637943437</v>
       </c>
       <c r="Q43" t="n" s="58">
-        <v>1.0</v>
+        <v>0.38701579791698737</v>
       </c>
       <c r="R43" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="S43" t="n" s="58">
-        <v>0.9995518584294788</v>
+        <v>0.9995891823417035</v>
       </c>
       <c r="T43" t="n" s="58">
-        <v>0.9994349337066447</v>
+        <v>0.9994814325606539</v>
       </c>
       <c r="U43" t="n" s="58">
-        <v>0.9993524818345677</v>
+        <v>0.9994045349903201</v>
       </c>
       <c r="V43" t="n" s="58">
-        <v>0.9991359612706253</v>
+        <v>0.99919899116484</v>
       </c>
       <c r="W43" t="n" s="58">
-        <v>0.9993912458831719</v>
+        <v>0.9994419465695565</v>
       </c>
       <c r="X43" t="n" s="58">
-        <v>0.999285744792573</v>
+        <v>0.9993432283045445</v>
       </c>
       <c r="Y43" t="n" s="58">
-        <v>0.9992194091956526</v>
+        <v>0.9992799910721415</v>
       </c>
       <c r="Z43" t="n" s="58">
-        <v>0.9989242907633834</v>
+        <v>0.9989979119190203</v>
       </c>
       <c r="AA43" t="n" s="58">
-        <v>0.07512329479840263</v>
+        <v>0.14211076942760423</v>
       </c>
       <c r="AB43" t="n" s="58">
-        <v>0.01303115518963643</v>
+        <v>0.06251754755034232</v>
       </c>
       <c r="AC43" t="n" s="58">
-        <v>0.0020222767048439106</v>
+        <v>0.036302732357849594</v>
       </c>
       <c r="AD43" t="n" s="58">
-        <v>0.0017338265878066859</v>
+        <v>0.03448441169975417</v>
       </c>
       <c r="AE43" s="58"/>
     </row>
@@ -4688,76 +4688,76 @@
         <v>1.0</v>
       </c>
       <c r="G46" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3404500527607216</v>
       </c>
       <c r="H46" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="I46" t="n" s="58">
-        <v>1.0</v>
+        <v>0.43097550919628497</v>
       </c>
       <c r="J46" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="K46" t="n" s="58">
-        <v>0.44103637704901905</v>
+        <v>0.4438462650784883</v>
       </c>
       <c r="L46" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4361977859894797</v>
       </c>
       <c r="M46" t="n" s="58">
-        <v>1.0</v>
+        <v>0.33126697211527145</v>
       </c>
       <c r="N46" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3415068636960983</v>
       </c>
       <c r="O46" t="n" s="58">
-        <v>1.0</v>
+        <v>0.33126697211527145</v>
       </c>
       <c r="P46" t="n" s="58">
-        <v>1.0</v>
+        <v>0.34570813767405395</v>
       </c>
       <c r="Q46" t="n" s="58">
-        <v>1.0</v>
+        <v>0.309517417906584</v>
       </c>
       <c r="R46" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="S46" t="n" s="58">
-        <v>0.9999946910979666</v>
+        <v>0.9999956560750148</v>
       </c>
       <c r="T46" t="n" s="58">
-        <v>0.999993174718912</v>
+        <v>0.9999944057059055</v>
       </c>
       <c r="U46" t="n" s="58">
-        <v>0.9999919196928195</v>
+        <v>0.9999933515869723</v>
       </c>
       <c r="V46" t="n" s="58">
-        <v>0.9622000579894345</v>
+        <v>0.9658533961791804</v>
       </c>
       <c r="W46" t="n" s="58">
-        <v>0.9999915432450387</v>
+        <v>0.9999930803942251</v>
       </c>
       <c r="X46" t="n" s="58">
-        <v>0.9999880157239402</v>
+        <v>0.9999901202683953</v>
       </c>
       <c r="Y46" t="n" s="58">
-        <v>0.9999846897548897</v>
+        <v>0.9999872515721391</v>
       </c>
       <c r="Z46" t="n" s="58">
-        <v>0.7381651658347959</v>
+        <v>0.7634118348948781</v>
       </c>
       <c r="AA46" t="n" s="58">
-        <v>0.44100487535403937</v>
+        <v>0.48947333237867313</v>
       </c>
       <c r="AB46" t="n" s="58">
-        <v>0.14653274683815504</v>
+        <v>0.1994014183210773</v>
       </c>
       <c r="AC46" t="n" s="58">
-        <v>0.018176520124041688</v>
+        <v>0.05413874481495887</v>
       </c>
       <c r="AD46" t="n" s="58">
-        <v>0.0027649353548068645</v>
+        <v>0.017328383374926475</v>
       </c>
       <c r="AE46" s="58"/>
     </row>
@@ -4853,7 +4853,7 @@
         <v>1.0</v>
       </c>
       <c r="F48" t="n" s="58">
-        <v>1.0</v>
+        <v>0.22766299546854193</v>
       </c>
       <c r="G48" t="n" s="58">
         <v>1.0</v>
@@ -4865,67 +4865,67 @@
         <v>1.0</v>
       </c>
       <c r="J48" t="n" s="58">
-        <v>1.0</v>
+        <v>0.23538988579745784</v>
       </c>
       <c r="K48" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="L48" t="n" s="58">
-        <v>1.0</v>
+        <v>0.32442117707993673</v>
       </c>
       <c r="M48" t="n" s="58">
-        <v>0.3300428002506818</v>
+        <v>0.27013950386567204</v>
       </c>
       <c r="N48" t="n" s="58">
-        <v>0.341265353039641</v>
+        <v>0.28117966346873763</v>
       </c>
       <c r="O48" t="n" s="58">
-        <v>0.3300428002506818</v>
+        <v>0.27013950386567204</v>
       </c>
       <c r="P48" t="n" s="58">
-        <v>0.3435025689520114</v>
+        <v>0.2837075387207081</v>
       </c>
       <c r="Q48" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2560441070456064</v>
       </c>
       <c r="R48" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2560441070456064</v>
       </c>
       <c r="S48" t="n" s="58">
-        <v>0.9999998067932692</v>
+        <v>0.9999998895646062</v>
       </c>
       <c r="T48" t="n" s="58">
-        <v>0.464976013774947</v>
+        <v>0.46839038170758096</v>
       </c>
       <c r="U48" t="n" s="58">
-        <v>0.017150182427983805</v>
+        <v>0.017503824946816314</v>
       </c>
       <c r="V48" t="n" s="58">
-        <v>4.1595935773695495E-4</v>
+        <v>4.3027390556476E-4</v>
       </c>
       <c r="W48" t="n" s="58">
-        <v>0.9984174709720532</v>
+        <v>0.9990954392960598</v>
       </c>
       <c r="X48" t="n" s="58">
-        <v>0.02792571561618638</v>
+        <v>0.043973436905869336</v>
       </c>
       <c r="Y48" t="n" s="58">
-        <v>3.702050857764876E-6</v>
+        <v>9.705331991962388E-6</v>
       </c>
       <c r="Z48" t="n" s="58">
-        <v>7.144009843420479E-10</v>
+        <v>3.0716440524615547E-9</v>
       </c>
       <c r="AA48" t="n" s="58">
-        <v>0.008264147767661312</v>
+        <v>0.14238117671267278</v>
       </c>
       <c r="AB48" t="n" s="58">
-        <v>1.7894927467380113E-6</v>
+        <v>7.521804500703591E-4</v>
       </c>
       <c r="AC48" t="n" s="58">
-        <v>3.360205357194676E-11</v>
+        <v>6.827521181573969E-8</v>
       </c>
       <c r="AD48" t="n" s="58">
-        <v>3.835271648967481E-15</v>
+        <v>1.8154010943324843E-11</v>
       </c>
       <c r="AE48" s="58"/>
     </row>
@@ -5024,7 +5024,7 @@
         <v>1.0</v>
       </c>
       <c r="G50" t="n" s="58">
-        <v>1.0</v>
+        <v>0.33958065307323504</v>
       </c>
       <c r="H50" t="n" s="58">
         <v>1.0</v>
@@ -5039,61 +5039,61 @@
         <v>1.0</v>
       </c>
       <c r="L50" t="n" s="58">
-        <v>1.0</v>
+        <v>0.40624763307649026</v>
       </c>
       <c r="M50" t="n" s="58">
-        <v>1.0</v>
+        <v>0.15103912400050487</v>
       </c>
       <c r="N50" t="n" s="58">
-        <v>1.0</v>
+        <v>0.15595106123184785</v>
       </c>
       <c r="O50" t="n" s="58">
-        <v>1.0</v>
+        <v>0.15103912400050487</v>
       </c>
       <c r="P50" t="n" s="58">
-        <v>1.0</v>
+        <v>0.15892058750328925</v>
       </c>
       <c r="Q50" t="n" s="58">
-        <v>1.0</v>
+        <v>0.11904075924491614</v>
       </c>
       <c r="R50" t="n" s="58">
-        <v>1.0</v>
+        <v>0.11904075924491614</v>
       </c>
       <c r="S50" t="n" s="58">
-        <v>0.9996398635859187</v>
+        <v>0.9998366828936288</v>
       </c>
       <c r="T50" t="n" s="58">
-        <v>0.9995947747742088</v>
+        <v>0.9998154030969705</v>
       </c>
       <c r="U50" t="n" s="58">
-        <v>0.9992250461588492</v>
+        <v>0.9995834980732761</v>
       </c>
       <c r="V50" t="n" s="58">
-        <v>0.9983632607864594</v>
+        <v>0.9989413145066429</v>
       </c>
       <c r="W50" t="n" s="58">
-        <v>0.9994752554313606</v>
+        <v>0.9997620352700163</v>
       </c>
       <c r="X50" t="n" s="58">
-        <v>0.9993643740192144</v>
+        <v>0.999699855045081</v>
       </c>
       <c r="Y50" t="n" s="58">
-        <v>0.9988497127051043</v>
+        <v>0.9993435107708911</v>
       </c>
       <c r="Z50" t="n" s="58">
-        <v>0.9978325767386814</v>
+        <v>0.998541170974731</v>
       </c>
       <c r="AA50" t="n" s="58">
-        <v>0.03900336289532301</v>
+        <v>0.5222794875966433</v>
       </c>
       <c r="AB50" t="n" s="58">
-        <v>2.886303819840439E-4</v>
+        <v>0.3701767847616212</v>
       </c>
       <c r="AC50" t="n" s="58">
-        <v>1.977453326594336E-6</v>
+        <v>0.269715723456762</v>
       </c>
       <c r="AD50" t="n" s="58">
-        <v>8.46278107883417E-8</v>
+        <v>0.18297644764430898</v>
       </c>
       <c r="AE50" s="58"/>
     </row>
@@ -5444,7 +5444,7 @@
         <v>1.0</v>
       </c>
       <c r="G55" t="n" s="58">
-        <v>1.0</v>
+        <v>0.34750847603486285</v>
       </c>
       <c r="H55" t="n" s="58">
         <v>1.0</v>
@@ -5462,58 +5462,58 @@
         <v>1.0</v>
       </c>
       <c r="M55" t="n" s="58">
-        <v>1.0</v>
+        <v>0.33353008487184754</v>
       </c>
       <c r="N55" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3453618699757827</v>
       </c>
       <c r="O55" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="P55" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35409126285960635</v>
       </c>
       <c r="Q55" t="n" s="58">
-        <v>1.0</v>
+        <v>0.27402514264750194</v>
       </c>
       <c r="R55" t="n" s="58">
-        <v>1.0</v>
+        <v>0.27402514264750194</v>
       </c>
       <c r="S55" t="n" s="58">
-        <v>0.999997683158738</v>
+        <v>0.9999979246599089</v>
       </c>
       <c r="T55" t="n" s="58">
-        <v>0.999996694696603</v>
+        <v>0.9999970255808831</v>
       </c>
       <c r="U55" t="n" s="58">
-        <v>0.9999914131536392</v>
+        <v>0.9999921239282035</v>
       </c>
       <c r="V55" t="n" s="58">
-        <v>0.9999330750766141</v>
+        <v>0.9999360719431714</v>
       </c>
       <c r="W55" t="n" s="58">
-        <v>0.9999921404723168</v>
+        <v>0.9999929597278991</v>
       </c>
       <c r="X55" t="n" s="58">
-        <v>0.9999873586152224</v>
+        <v>0.9999884516196891</v>
       </c>
       <c r="Y55" t="n" s="58">
-        <v>0.9999834342554159</v>
+        <v>0.9999847027352141</v>
       </c>
       <c r="Z55" t="n" s="58">
-        <v>0.9998895051208746</v>
+        <v>0.9998941993272853</v>
       </c>
       <c r="AA55" t="n" s="58">
-        <v>0.025856044988235218</v>
+        <v>0.0856093793701047</v>
       </c>
       <c r="AB55" t="n" s="58">
-        <v>2.036413306287087E-4</v>
+        <v>0.009715980620801238</v>
       </c>
       <c r="AC55" t="n" s="58">
-        <v>4.753128839971884E-6</v>
+        <v>0.004340498968942842</v>
       </c>
       <c r="AD55" t="n" s="58">
-        <v>2.0089439193129572E-7</v>
+        <v>0.0019231645943857054</v>
       </c>
       <c r="AE55" s="58"/>
     </row>
@@ -6131,10 +6131,10 @@
         <v>1.0</v>
       </c>
       <c r="L63" t="n" s="58">
-        <v>0.443441974831615</v>
+        <v>0.44346704247937685</v>
       </c>
       <c r="M63" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3832285070846599</v>
       </c>
       <c r="N63" t="n" s="58">
         <v>1.0</v>
@@ -6143,49 +6143,49 @@
         <v>1.0</v>
       </c>
       <c r="P63" t="n" s="58">
-        <v>1.0</v>
+        <v>0.38398617180778327</v>
       </c>
       <c r="Q63" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35942068419667594</v>
       </c>
       <c r="R63" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="S63" t="n" s="58">
-        <v>0.9999839048952042</v>
+        <v>0.9999841301807623</v>
       </c>
       <c r="T63" t="n" s="58">
-        <v>0.9999731739178745</v>
+        <v>0.99997353942693</v>
       </c>
       <c r="U63" t="n" s="58">
-        <v>0.9998130415513283</v>
+        <v>0.9998149721497482</v>
       </c>
       <c r="V63" t="n" s="58">
-        <v>0.9380918609260303</v>
+        <v>0.9386378273125483</v>
       </c>
       <c r="W63" t="n" s="58">
-        <v>0.9999667651481285</v>
+        <v>0.9999672303412567</v>
       </c>
       <c r="X63" t="n" s="58">
-        <v>0.9999493552031078</v>
+        <v>0.9999500249363162</v>
       </c>
       <c r="Y63" t="n" s="58">
-        <v>0.999495147243385</v>
+        <v>0.9995001757636125</v>
       </c>
       <c r="Z63" t="n" s="58">
-        <v>0.8763805528883204</v>
+        <v>0.8774704228832826</v>
       </c>
       <c r="AA63" t="n" s="58">
-        <v>0.19119345219238887</v>
+        <v>0.20251682266965929</v>
       </c>
       <c r="AB63" t="n" s="58">
-        <v>0.03167004513703088</v>
+        <v>0.04298462975244794</v>
       </c>
       <c r="AC63" t="n" s="58">
-        <v>0.017427055892678848</v>
+        <v>0.02767152817918014</v>
       </c>
       <c r="AD63" t="n" s="58">
-        <v>0.014888408166959239</v>
+        <v>0.02426517460534318</v>
       </c>
       <c r="AE63" s="58"/>
     </row>
@@ -6956,7 +6956,7 @@
         <v>1.0</v>
       </c>
       <c r="G73" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4342172545845384</v>
       </c>
       <c r="H73" t="n" s="58">
         <v>1.0</v>
@@ -6971,10 +6971,10 @@
         <v>1.0</v>
       </c>
       <c r="L73" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4479866246828423</v>
       </c>
       <c r="M73" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3685740929324518</v>
       </c>
       <c r="N73" t="n" s="58">
         <v>1.0</v>
@@ -6983,7 +6983,7 @@
         <v>1.0</v>
       </c>
       <c r="P73" t="n" s="58">
-        <v>1.0</v>
+        <v>0.37638164960140147</v>
       </c>
       <c r="Q73" t="n" s="58">
         <v>1.0</v>
@@ -6992,40 +6992,40 @@
         <v>1.0</v>
       </c>
       <c r="S73" t="n" s="58">
-        <v>0.9999997102794084</v>
+        <v>0.9999997496717941</v>
       </c>
       <c r="T73" t="n" s="58">
-        <v>0.9999993167896875</v>
+        <v>0.9999994096752413</v>
       </c>
       <c r="U73" t="n" s="58">
-        <v>0.9999987870441018</v>
+        <v>0.9999989519313628</v>
       </c>
       <c r="V73" t="n" s="58">
-        <v>0.9985511996132164</v>
+        <v>0.9987329034170601</v>
       </c>
       <c r="W73" t="n" s="58">
-        <v>0.9999991090216478</v>
+        <v>0.9999992301651359</v>
       </c>
       <c r="X73" t="n" s="58">
-        <v>0.9999983679226401</v>
+        <v>0.9999985897990784</v>
       </c>
       <c r="Y73" t="n" s="58">
-        <v>0.9999977909537748</v>
+        <v>0.9999980912246581</v>
       </c>
       <c r="Z73" t="n" s="58">
-        <v>0.9971039329454737</v>
+        <v>0.9974671352973395</v>
       </c>
       <c r="AA73" t="n" s="58">
-        <v>0.9999912183335684</v>
+        <v>0.9999923915738422</v>
       </c>
       <c r="AB73" t="n" s="58">
-        <v>0.9999880684900699</v>
+        <v>0.9999896611835648</v>
       </c>
       <c r="AC73" t="n" s="58">
-        <v>0.9999870579859361</v>
+        <v>0.999988784601969</v>
       </c>
       <c r="AD73" t="n" s="58">
-        <v>0.989581826530427</v>
+        <v>0.9908582547268323</v>
       </c>
       <c r="AE73" s="58"/>
     </row>
@@ -7208,7 +7208,7 @@
         <v>1.0</v>
       </c>
       <c r="G76" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4148380628108458</v>
       </c>
       <c r="H76" t="n" s="58">
         <v>1.0</v>
@@ -7223,61 +7223,61 @@
         <v>1.0</v>
       </c>
       <c r="L76" t="n" s="58">
-        <v>0.4198236423688323</v>
+        <v>0.4375322425480699</v>
       </c>
       <c r="M76" t="n" s="58">
-        <v>1.0</v>
+        <v>0.33793184683674465</v>
       </c>
       <c r="N76" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35006357300907376</v>
       </c>
       <c r="O76" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="P76" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3571504226319715</v>
       </c>
       <c r="Q76" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2835269300687064</v>
       </c>
       <c r="R76" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2835269300687064</v>
       </c>
       <c r="S76" t="n" s="58">
-        <v>0.9999997233612503</v>
+        <v>0.9999997364714481</v>
       </c>
       <c r="T76" t="n" s="58">
-        <v>0.9999981349189719</v>
+        <v>0.9999982097348092</v>
       </c>
       <c r="U76" t="n" s="58">
-        <v>0.9999950531572688</v>
+        <v>0.999995207315639</v>
       </c>
       <c r="V76" t="n" s="58">
-        <v>0.9999920630490892</v>
+        <v>0.9999922780734439</v>
       </c>
       <c r="W76" t="n" s="58">
-        <v>0.9999975086045195</v>
+        <v>0.9999976266743407</v>
       </c>
       <c r="X76" t="n" s="58">
-        <v>0.999995931976998</v>
+        <v>0.9999960919710006</v>
       </c>
       <c r="Y76" t="n" s="58">
-        <v>0.9999917086394663</v>
+        <v>0.9999919466804873</v>
       </c>
       <c r="Z76" t="n" s="58">
-        <v>0.9999900777126843</v>
+        <v>0.9999903320323904</v>
       </c>
       <c r="AA76" t="n" s="58">
-        <v>0.004157985892595727</v>
+        <v>0.01987204328747678</v>
       </c>
       <c r="AB76" t="n" s="58">
-        <v>3.6921085498731776E-6</v>
+        <v>5.595188070857721E-4</v>
       </c>
       <c r="AC76" t="n" s="58">
-        <v>5.716549471177024E-9</v>
+        <v>1.1973561536268933E-4</v>
       </c>
       <c r="AD76" t="n" s="58">
-        <v>7.156975137563691E-10</v>
+        <v>9.659262252935818E-5</v>
       </c>
       <c r="AE76" s="58"/>
     </row>
@@ -7979,19 +7979,19 @@
         <v>1.0</v>
       </c>
       <c r="L85" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4219105599429242</v>
       </c>
       <c r="M85" t="n" s="58">
-        <v>1.0</v>
+        <v>0.37999459089877263</v>
       </c>
       <c r="N85" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3912324934184257</v>
       </c>
       <c r="O85" t="n" s="58">
-        <v>1.0</v>
+        <v>0.37999459089877263</v>
       </c>
       <c r="P85" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3717196727655993</v>
       </c>
       <c r="Q85" t="n" s="58">
         <v>1.0</v>
@@ -8000,40 +8000,40 @@
         <v>1.0</v>
       </c>
       <c r="S85" t="n" s="58">
-        <v>0.9875207059381793</v>
+        <v>0.9883967578526532</v>
       </c>
       <c r="T85" t="n" s="58">
-        <v>0.8063313696828317</v>
+        <v>0.8171802781885629</v>
       </c>
       <c r="U85" t="n" s="58">
-        <v>0.5362228678191702</v>
+        <v>0.56030102044329</v>
       </c>
       <c r="V85" t="n" s="58">
-        <v>0.3604512038940904</v>
+        <v>0.39242945212070623</v>
       </c>
       <c r="W85" t="n" s="58">
-        <v>0.9343116583770392</v>
+        <v>0.9389230087589071</v>
       </c>
       <c r="X85" t="n" s="58">
-        <v>0.6532956858812473</v>
+        <v>0.6722665569512702</v>
       </c>
       <c r="Y85" t="n" s="58">
-        <v>0.31662619215074134</v>
+        <v>0.3512321343616097</v>
       </c>
       <c r="Z85" t="n" s="58">
-        <v>0.26577257121986037</v>
+        <v>0.30190983190369863</v>
       </c>
       <c r="AA85" t="n" s="58">
-        <v>0.33612764594317135</v>
+        <v>0.38171978321240924</v>
       </c>
       <c r="AB85" t="n" s="58">
-        <v>0.07039246121676764</v>
+        <v>0.116683709325471</v>
       </c>
       <c r="AC85" t="n" s="58">
-        <v>0.05988540112509671</v>
+        <v>0.1044645951038716</v>
       </c>
       <c r="AD85" t="n" s="58">
-        <v>0.04914792624155789</v>
+        <v>0.08947228889896727</v>
       </c>
       <c r="AE85" s="58"/>
     </row>
@@ -8132,7 +8132,7 @@
         <v>1.0</v>
       </c>
       <c r="G87" t="n" s="58">
-        <v>1.0</v>
+        <v>0.36222811043059333</v>
       </c>
       <c r="H87" t="n" s="58">
         <v>1.0</v>
@@ -8147,61 +8147,61 @@
         <v>1.0</v>
       </c>
       <c r="L87" t="n" s="58">
-        <v>1.0</v>
+        <v>0.43533268558296906</v>
       </c>
       <c r="M87" t="n" s="58">
-        <v>1.0</v>
+        <v>0.32901545888614464</v>
       </c>
       <c r="N87" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3391332605241245</v>
       </c>
       <c r="O87" t="n" s="58">
-        <v>1.0</v>
+        <v>0.32901545888614464</v>
       </c>
       <c r="P87" t="n" s="58">
-        <v>1.0</v>
+        <v>0.34356921488094616</v>
       </c>
       <c r="Q87" t="n" s="58">
-        <v>1.0</v>
+        <v>0.30632379033143015</v>
       </c>
       <c r="R87" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="S87" t="n" s="58">
-        <v>0.99990571949693</v>
+        <v>0.9999193753099203</v>
       </c>
       <c r="T87" t="n" s="58">
-        <v>0.9998933397180843</v>
+        <v>0.9999087524116994</v>
       </c>
       <c r="U87" t="n" s="58">
-        <v>0.9998861754905023</v>
+        <v>0.9999025384435821</v>
       </c>
       <c r="V87" t="n" s="58">
-        <v>0.807372970553181</v>
+        <v>0.8096595409094491</v>
       </c>
       <c r="W87" t="n" s="58">
-        <v>0.9998907934516218</v>
+        <v>0.9999066111886238</v>
       </c>
       <c r="X87" t="n" s="58">
-        <v>0.9998812418584156</v>
+        <v>0.9998983184169867</v>
       </c>
       <c r="Y87" t="n" s="58">
-        <v>0.9998750395957904</v>
+        <v>0.9998928462161577</v>
       </c>
       <c r="Z87" t="n" s="58">
-        <v>0.6157566476629042</v>
+        <v>0.6201974057293733</v>
       </c>
       <c r="AA87" t="n" s="58">
-        <v>0.357831946580839</v>
+        <v>0.42047124275463404</v>
       </c>
       <c r="AB87" t="n" s="58">
-        <v>0.11824157766794138</v>
+        <v>0.1900404800079922</v>
       </c>
       <c r="AC87" t="n" s="58">
-        <v>0.04611996731563302</v>
+        <v>0.11125695780635186</v>
       </c>
       <c r="AD87" t="n" s="58">
-        <v>7.239126464999234E-4</v>
+        <v>0.004587036012965372</v>
       </c>
       <c r="AE87" s="58"/>
     </row>
@@ -8216,7 +8216,7 @@
         <v>1.0</v>
       </c>
       <c r="G88" t="n" s="58">
-        <v>1.0</v>
+        <v>0.33877916249763945</v>
       </c>
       <c r="H88" t="n" s="58">
         <v>1.0</v>
@@ -8231,61 +8231,61 @@
         <v>1.0</v>
       </c>
       <c r="L88" t="n" s="58">
-        <v>1.0</v>
+        <v>0.41798463706220684</v>
       </c>
       <c r="M88" t="n" s="58">
-        <v>1.0</v>
+        <v>0.34714002379129577</v>
       </c>
       <c r="N88" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35774350892943735</v>
       </c>
       <c r="O88" t="n" s="58">
-        <v>1.0</v>
+        <v>0.34714002379129577</v>
       </c>
       <c r="P88" t="n" s="58">
-        <v>1.0</v>
+        <v>0.36296685396197975</v>
       </c>
       <c r="Q88" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2713933534793091</v>
       </c>
       <c r="R88" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="S88" t="n" s="58">
-        <v>0.9982995624387128</v>
+        <v>0.9986614519348977</v>
       </c>
       <c r="T88" t="n" s="58">
-        <v>0.9981910883224273</v>
+        <v>0.9985754604925122</v>
       </c>
       <c r="U88" t="n" s="58">
-        <v>0.9981449414086319</v>
+        <v>0.9985377296753386</v>
       </c>
       <c r="V88" t="n" s="58">
-        <v>0.8000352061147632</v>
+        <v>0.8011894266257477</v>
       </c>
       <c r="W88" t="n" s="58">
-        <v>0.9981760599134063</v>
+        <v>0.9985642333894788</v>
       </c>
       <c r="X88" t="n" s="58">
-        <v>0.9981154621671294</v>
+        <v>0.9985145256737509</v>
       </c>
       <c r="Y88" t="n" s="58">
-        <v>0.9980779167425465</v>
+        <v>0.9984822656453661</v>
       </c>
       <c r="Z88" t="n" s="58">
-        <v>0.6029587066111772</v>
+        <v>0.6046870511546552</v>
       </c>
       <c r="AA88" t="n" s="58">
-        <v>0.3881016781715866</v>
+        <v>0.4949529728416721</v>
       </c>
       <c r="AB88" t="n" s="58">
-        <v>0.14405337971007448</v>
+        <v>0.25722112937233454</v>
       </c>
       <c r="AC88" t="n" s="58">
-        <v>0.060347480631624456</v>
+        <v>0.15177623725410497</v>
       </c>
       <c r="AD88" t="n" s="58">
-        <v>0.0015045795400491274</v>
+        <v>0.008035259489405672</v>
       </c>
       <c r="AE88" s="58"/>
     </row>
@@ -8477,67 +8477,67 @@
         <v>1.0</v>
       </c>
       <c r="J91" t="n" s="58">
-        <v>1.0</v>
+        <v>0.321596002495715</v>
       </c>
       <c r="K91" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4403434530476595</v>
       </c>
       <c r="L91" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4007359002327792</v>
       </c>
       <c r="M91" t="n" s="58">
-        <v>1.0</v>
+        <v>0.26738396556414135</v>
       </c>
       <c r="N91" t="n" s="58">
-        <v>1.0</v>
+        <v>0.27578264828807614</v>
       </c>
       <c r="O91" t="n" s="58">
-        <v>1.0</v>
+        <v>0.26738396556414135</v>
       </c>
       <c r="P91" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2777217019573144</v>
       </c>
       <c r="Q91" t="n" s="58">
-        <v>1.0</v>
+        <v>0.24550998738651852</v>
       </c>
       <c r="R91" t="n" s="58">
-        <v>1.0</v>
+        <v>0.24550998738651852</v>
       </c>
       <c r="S91" t="n" s="58">
-        <v>0.9961870448235179</v>
+        <v>0.9969564148809307</v>
       </c>
       <c r="T91" t="n" s="58">
-        <v>0.6887380083310534</v>
+        <v>0.7062532656543331</v>
       </c>
       <c r="U91" t="n" s="58">
-        <v>0.4315927372005704</v>
+        <v>0.44670546256163407</v>
       </c>
       <c r="V91" t="n" s="58">
-        <v>0.21056895346932616</v>
+        <v>0.21871894307755946</v>
       </c>
       <c r="W91" t="n" s="58">
-        <v>0.9960954371127126</v>
+        <v>0.9968832915808932</v>
       </c>
       <c r="X91" t="n" s="58">
-        <v>0.2826493295956363</v>
+        <v>0.27937437447123525</v>
       </c>
       <c r="Y91" t="n" s="58">
-        <v>0.0017732796419844916</v>
+        <v>0.0018885409691847329</v>
       </c>
       <c r="Z91" t="n" s="58">
-        <v>6.2865247490923424E-6</v>
+        <v>7.578529842547483E-6</v>
       </c>
       <c r="AA91" t="n" s="58">
-        <v>0.05986035371823362</v>
+        <v>0.24440777162985272</v>
       </c>
       <c r="AB91" t="n" s="58">
-        <v>3.272516514216583E-4</v>
+        <v>0.009781965785939895</v>
       </c>
       <c r="AC91" t="n" s="58">
-        <v>2.7071452890455573E-7</v>
+        <v>1.9523757249532257E-5</v>
       </c>
       <c r="AD91" t="n" s="58">
-        <v>5.555611066581791E-10</v>
+        <v>5.645996359821341E-8</v>
       </c>
       <c r="AE91" s="58"/>
     </row>
@@ -8549,7 +8549,7 @@
         <v>1.0</v>
       </c>
       <c r="F92" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35691728041999427</v>
       </c>
       <c r="G92" t="n" s="58">
         <v>1.0</v>
@@ -8558,16 +8558,16 @@
         <v>1.0</v>
       </c>
       <c r="I92" t="n" s="58">
-        <v>0.42422291229799713</v>
+        <v>0.40521033805969875</v>
       </c>
       <c r="J92" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35644717212701194</v>
       </c>
       <c r="K92" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="L92" t="n" s="58">
-        <v>0.3887803859165346</v>
+        <v>0.3897755719101629</v>
       </c>
       <c r="M92" t="n" s="58">
         <v>1.0</v>
@@ -8579,49 +8579,49 @@
         <v>1.0</v>
       </c>
       <c r="P92" t="n" s="58">
-        <v>1.0</v>
+        <v>0.37142574302371767</v>
       </c>
       <c r="Q92" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2922993019925599</v>
       </c>
       <c r="R92" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="S92" t="n" s="58">
-        <v>0.9999361421740612</v>
+        <v>0.9999663124067583</v>
       </c>
       <c r="T92" t="n" s="58">
-        <v>0.9821023708958115</v>
+        <v>0.9903251182186628</v>
       </c>
       <c r="U92" t="n" s="58">
-        <v>0.18164046239319673</v>
+        <v>0.18686237823367577</v>
       </c>
       <c r="V92" t="n" s="58">
-        <v>0.02164574616559267</v>
+        <v>0.022625143353438265</v>
       </c>
       <c r="W92" t="n" s="58">
-        <v>0.9970971281348812</v>
+        <v>0.9984686173513184</v>
       </c>
       <c r="X92" t="n" s="58">
-        <v>0.9797381612841416</v>
+        <v>0.989046503373912</v>
       </c>
       <c r="Y92" t="n" s="58">
-        <v>0.012825730837781888</v>
+        <v>0.01707726005711688</v>
       </c>
       <c r="Z92" t="n" s="58">
-        <v>9.659681315978172E-5</v>
+        <v>1.8521456163648437E-4</v>
       </c>
       <c r="AA92" t="n" s="58">
-        <v>0.9628560319654728</v>
+        <v>0.9788748060167954</v>
       </c>
       <c r="AB92" t="n" s="58">
-        <v>0.9603115037899616</v>
+        <v>0.9771593070999496</v>
       </c>
       <c r="AC92" t="n" s="58">
-        <v>0.0013739150632114526</v>
+        <v>0.002978000388925079</v>
       </c>
       <c r="AD92" t="n" s="58">
-        <v>1.1543999809924605E-6</v>
+        <v>6.141569374832113E-6</v>
       </c>
       <c r="AE92" s="58"/>
     </row>
@@ -9389,7 +9389,7 @@
         <v>1.0</v>
       </c>
       <c r="F102" t="n" s="58">
-        <v>1.0</v>
+        <v>0.28934965376999766</v>
       </c>
       <c r="G102" t="n" s="58">
         <v>1.0</v>
@@ -9407,61 +9407,61 @@
         <v>1.0</v>
       </c>
       <c r="L102" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3919792833935167</v>
       </c>
       <c r="M102" t="n" s="58">
-        <v>0.32551111316144477</v>
+        <v>0.24867685026272263</v>
       </c>
       <c r="N102" t="n" s="58">
-        <v>0.3372712169319376</v>
+        <v>0.2615343857095586</v>
       </c>
       <c r="O102" t="n" s="58">
-        <v>0.3255111131614448</v>
+        <v>0.24867685026272263</v>
       </c>
       <c r="P102" t="n" s="58">
-        <v>0.3396423741496149</v>
+        <v>0.2659214183917336</v>
       </c>
       <c r="Q102" t="n" s="58">
-        <v>1.0</v>
+        <v>0.23550422328363907</v>
       </c>
       <c r="R102" t="n" s="58">
-        <v>1.0</v>
+        <v>0.23550422328363907</v>
       </c>
       <c r="S102" t="n" s="58">
-        <v>0.9999999252026642</v>
+        <v>0.9999999524975315</v>
       </c>
       <c r="T102" t="n" s="58">
-        <v>0.9991529010949329</v>
+        <v>0.9992371174133934</v>
       </c>
       <c r="U102" t="n" s="58">
-        <v>0.14753376167023366</v>
+        <v>0.1487117028871808</v>
       </c>
       <c r="V102" t="n" s="58">
-        <v>0.014245366108658454</v>
+        <v>0.01443057835870669</v>
       </c>
       <c r="W102" t="n" s="58">
-        <v>0.9999962736444572</v>
+        <v>0.9999976334573262</v>
       </c>
       <c r="X102" t="n" s="58">
-        <v>0.9953036169132947</v>
+        <v>0.995801182598169</v>
       </c>
       <c r="Y102" t="n" s="58">
-        <v>0.0016498955971508938</v>
+        <v>0.0021501441426969273</v>
       </c>
       <c r="Z102" t="n" s="58">
-        <v>9.529780646042094E-7</v>
+        <v>1.8471402098125781E-6</v>
       </c>
       <c r="AA102" t="n" s="58">
-        <v>0.1271122808021389</v>
+        <v>0.3303635841822896</v>
       </c>
       <c r="AB102" t="n" s="58">
-        <v>0.0016923871020747177</v>
+        <v>0.07288119385756964</v>
       </c>
       <c r="AC102" t="n" s="58">
-        <v>5.776096587853102E-8</v>
+        <v>1.9660141521390284E-5</v>
       </c>
       <c r="AD102" t="n" s="58">
-        <v>7.617448894600864E-12</v>
+        <v>7.958501119654195E-9</v>
       </c>
       <c r="AE102" s="58"/>
     </row>
@@ -9812,7 +9812,7 @@
         <v>1.0</v>
       </c>
       <c r="G107" t="n" s="58">
-        <v>1.0</v>
+        <v>0.34582467593604865</v>
       </c>
       <c r="H107" t="n" s="58">
         <v>1.0</v>
@@ -9821,67 +9821,67 @@
         <v>1.0</v>
       </c>
       <c r="J107" t="n" s="58">
-        <v>1.0</v>
+        <v>0.33937603395456006</v>
       </c>
       <c r="K107" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="L107" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3998471430570243</v>
       </c>
       <c r="M107" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3489932019119955</v>
       </c>
       <c r="N107" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="O107" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3489932019119955</v>
       </c>
       <c r="P107" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3620763987080634</v>
       </c>
       <c r="Q107" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2296027225405993</v>
       </c>
       <c r="R107" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="S107" t="n" s="58">
-        <v>0.8744175632630027</v>
+        <v>0.9156745411305878</v>
       </c>
       <c r="T107" t="n" s="58">
-        <v>0.8704634439388061</v>
+        <v>0.9130064977165883</v>
       </c>
       <c r="U107" t="n" s="58">
-        <v>0.8692586275000246</v>
+        <v>0.9121686905319155</v>
       </c>
       <c r="V107" t="n" s="58">
-        <v>0.6930771352341637</v>
+        <v>0.727501689218232</v>
       </c>
       <c r="W107" t="n" s="58">
-        <v>0.8700933130961542</v>
+        <v>0.9127709155197128</v>
       </c>
       <c r="X107" t="n" s="58">
-        <v>0.8685374153099976</v>
+        <v>0.9116844549493143</v>
       </c>
       <c r="Y107" t="n" s="58">
-        <v>0.8676375602372934</v>
+        <v>0.9110251174381135</v>
       </c>
       <c r="Z107" t="n" s="58">
-        <v>0.5176837772221596</v>
+        <v>0.5433985892377599</v>
       </c>
       <c r="AA107" t="n" s="58">
-        <v>0.4983902986896035</v>
+        <v>0.6575240349382844</v>
       </c>
       <c r="AB107" t="n" s="58">
-        <v>0.3498814149178158</v>
+        <v>0.5371780205343102</v>
       </c>
       <c r="AC107" t="n" s="58">
-        <v>0.299064659006231</v>
+        <v>0.4838969472982865</v>
       </c>
       <c r="AD107" t="n" s="58">
-        <v>0.01738984544586601</v>
+        <v>0.04592420677671876</v>
       </c>
       <c r="AE107" s="58"/>
     </row>
@@ -9980,76 +9980,76 @@
         <v>1.0</v>
       </c>
       <c r="G109" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3991899571745341</v>
       </c>
       <c r="H109" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="I109" t="n" s="58">
-        <v>1.0</v>
+        <v>0.43070598620314415</v>
       </c>
       <c r="J109" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4070857257096905</v>
       </c>
       <c r="K109" t="n" s="58">
-        <v>0.4411636185370686</v>
+        <v>0.44594775809623194</v>
       </c>
       <c r="L109" t="n" s="58">
-        <v>1.0</v>
+        <v>0.40116669173298847</v>
       </c>
       <c r="M109" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3494408890312517</v>
       </c>
       <c r="N109" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3600581389463358</v>
       </c>
       <c r="O109" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="P109" t="n" s="58">
-        <v>1.0</v>
+        <v>0.36250552043896245</v>
       </c>
       <c r="Q109" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="R109" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2785837140703935</v>
       </c>
       <c r="S109" t="n" s="58">
-        <v>0.9983000162490381</v>
+        <v>0.9986562643389162</v>
       </c>
       <c r="T109" t="n" s="58">
-        <v>0.998191570885685</v>
+        <v>0.9985699164795279</v>
       </c>
       <c r="U109" t="n" s="58">
-        <v>0.9981454357657314</v>
+        <v>0.9985319820031624</v>
       </c>
       <c r="V109" t="n" s="58">
-        <v>0.7764406974778708</v>
+        <v>0.7878493661846282</v>
       </c>
       <c r="W109" t="n" s="58">
-        <v>0.9981765466839075</v>
+        <v>0.9985586690191781</v>
       </c>
       <c r="X109" t="n" s="58">
-        <v>0.9981159644560108</v>
+        <v>0.9985086916078973</v>
       </c>
       <c r="Y109" t="n" s="58">
-        <v>0.9980784279792921</v>
+        <v>0.9984761922985042</v>
       </c>
       <c r="Z109" t="n" s="58">
-        <v>0.5559226840359041</v>
+        <v>0.57813924315643</v>
       </c>
       <c r="AA109" t="n" s="58">
-        <v>0.3778837318561213</v>
+        <v>0.4689873881562983</v>
       </c>
       <c r="AB109" t="n" s="58">
-        <v>0.1297888062985366</v>
+        <v>0.21746833345865518</v>
       </c>
       <c r="AC109" t="n" s="58">
-        <v>0.044688494787235786</v>
+        <v>0.10472329783869856</v>
       </c>
       <c r="AD109" t="n" s="58">
-        <v>0.0010317386332141805</v>
+        <v>0.005119675666887637</v>
       </c>
       <c r="AE109" s="58"/>
     </row>
@@ -10064,76 +10064,76 @@
         <v>1.0</v>
       </c>
       <c r="G110" t="n" s="58">
-        <v>1.0</v>
+        <v>0.33411623959238534</v>
       </c>
       <c r="H110" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="I110" t="n" s="58">
-        <v>1.0</v>
+        <v>0.4259070443578185</v>
       </c>
       <c r="J110" t="n" s="58">
-        <v>1.0</v>
+        <v>0.34371289039188024</v>
       </c>
       <c r="K110" t="n" s="58">
-        <v>1.0</v>
+        <v>0.42924260540541054</v>
       </c>
       <c r="L110" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="M110" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35236816652157205</v>
       </c>
       <c r="N110" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3668724350747604</v>
       </c>
       <c r="O110" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35236816652157205</v>
       </c>
       <c r="P110" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="Q110" t="n" s="58">
-        <v>1.0</v>
+        <v>0.15824005613477574</v>
       </c>
       <c r="R110" t="n" s="58">
-        <v>1.0</v>
+        <v>0.15824005613477574</v>
       </c>
       <c r="S110" t="n" s="58">
-        <v>0.899595467619617</v>
+        <v>0.9596812359729784</v>
       </c>
       <c r="T110" t="n" s="58">
-        <v>0.8983608874140417</v>
+        <v>0.9591764530140215</v>
       </c>
       <c r="U110" t="n" s="58">
-        <v>0.8980525935286776</v>
+        <v>0.9590287673478325</v>
       </c>
       <c r="V110" t="n" s="58">
-        <v>0.6984599147644288</v>
+        <v>0.7494911160899111</v>
       </c>
       <c r="W110" t="n" s="58">
-        <v>0.8976664820447282</v>
+        <v>0.9589066263775587</v>
       </c>
       <c r="X110" t="n" s="58">
-        <v>0.8965334028218916</v>
+        <v>0.9583535967922497</v>
       </c>
       <c r="Y110" t="n" s="58">
-        <v>0.8955092912710437</v>
+        <v>0.957733884601201</v>
       </c>
       <c r="Z110" t="n" s="58">
-        <v>0.5149225471494581</v>
+        <v>0.5617671213747842</v>
       </c>
       <c r="AA110" t="n" s="58">
-        <v>0.3484250227814473</v>
+        <v>0.7181658452447298</v>
       </c>
       <c r="AB110" t="n" s="58">
-        <v>0.12853012950235956</v>
+        <v>0.5421421936718317</v>
       </c>
       <c r="AC110" t="n" s="58">
-        <v>0.053173255267297784</v>
+        <v>0.3993860989836523</v>
       </c>
       <c r="AD110" t="n" s="58">
-        <v>0.0028766650759335733</v>
+        <v>0.0671033374187642</v>
       </c>
       <c r="AE110" s="58"/>
     </row>
@@ -10148,76 +10148,76 @@
         <v>1.0</v>
       </c>
       <c r="G111" t="n" s="58">
-        <v>0.30725931567324144</v>
+        <v>0.3029880042341737</v>
       </c>
       <c r="H111" t="n" s="58">
-        <v>0.3599221986549286</v>
+        <v>1.0</v>
       </c>
       <c r="I111" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="J111" t="n" s="58">
-        <v>0.32293949809288175</v>
+        <v>0.311503830786176</v>
       </c>
       <c r="K111" t="n" s="58">
-        <v>0.44650552148791195</v>
+        <v>1.0</v>
       </c>
       <c r="L111" t="n" s="58">
-        <v>0.406082507570779</v>
+        <v>0.4010078676928212</v>
       </c>
       <c r="M111" t="n" s="58">
-        <v>0.3311946161396545</v>
+        <v>0.33340430844343455</v>
       </c>
       <c r="N111" t="n" s="58">
-        <v>0.34141304278450185</v>
+        <v>0.3436811166590464</v>
       </c>
       <c r="O111" t="n" s="58">
-        <v>0.33119461613965456</v>
+        <v>1.0</v>
       </c>
       <c r="P111" t="n" s="58">
-        <v>0.3437701255527074</v>
+        <v>0.34605155851387287</v>
       </c>
       <c r="Q111" t="n" s="58">
-        <v>0.278948946489556</v>
+        <v>0.1995918249477119</v>
       </c>
       <c r="R111" t="n" s="58">
-        <v>0.278948946489556</v>
+        <v>0.1995918249477119</v>
       </c>
       <c r="S111" t="n" s="58">
-        <v>0.0060604256433899936</v>
+        <v>0.949660470325459</v>
       </c>
       <c r="T111" t="n" s="58">
-        <v>0.004608258703791233</v>
+        <v>0.9480388779399966</v>
       </c>
       <c r="U111" t="n" s="58">
-        <v>0.002241169834903974</v>
+        <v>0.45154490775607914</v>
       </c>
       <c r="V111" t="n" s="58">
-        <v>8.957767920948286E-4</v>
+        <v>0.1490397524563828</v>
       </c>
       <c r="W111" t="n" s="58">
-        <v>0.004026607764711781</v>
+        <v>0.9459385899422441</v>
       </c>
       <c r="X111" t="n" s="58">
-        <v>0.0034495618444147116</v>
+        <v>0.943322454667836</v>
       </c>
       <c r="Y111" t="n" s="58">
-        <v>7.176839381020551E-4</v>
+        <v>0.08162623483464254</v>
       </c>
       <c r="Z111" t="n" s="58">
-        <v>3.0376113543665597E-4</v>
+        <v>0.01458383929168544</v>
       </c>
       <c r="AA111" t="n" s="58">
-        <v>0.0019740693310493678</v>
+        <v>0.5814556906612686</v>
       </c>
       <c r="AB111" t="n" s="58">
-        <v>5.547045487303683E-4</v>
+        <v>0.32410947384420624</v>
       </c>
       <c r="AC111" t="n" s="58">
-        <v>7.281905066921123E-5</v>
+        <v>0.004515021159473504</v>
       </c>
       <c r="AD111" t="n" s="58">
-        <v>1.934212531501426E-5</v>
+        <v>3.2086910665799054E-4</v>
       </c>
       <c r="AE111" s="58"/>
     </row>
@@ -10232,7 +10232,7 @@
         <v>1.0</v>
       </c>
       <c r="G112" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3874828610043489</v>
       </c>
       <c r="H112" t="n" s="58">
         <v>1.0</v>
@@ -10247,16 +10247,16 @@
         <v>1.0</v>
       </c>
       <c r="L112" t="n" s="58">
-        <v>1.0</v>
+        <v>0.43456458745363563</v>
       </c>
       <c r="M112" t="n" s="58">
-        <v>1.0</v>
+        <v>0.353452983384878</v>
       </c>
       <c r="N112" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="O112" t="n" s="58">
-        <v>1.0</v>
+        <v>0.353452983384878</v>
       </c>
       <c r="P112" t="n" s="58">
         <v>1.0</v>
@@ -10265,43 +10265,43 @@
         <v>1.0</v>
       </c>
       <c r="R112" t="n" s="58">
-        <v>1.0</v>
+        <v>0.1657120763895266</v>
       </c>
       <c r="S112" t="n" s="58">
-        <v>0.999715898091501</v>
+        <v>0.9998774967301071</v>
       </c>
       <c r="T112" t="n" s="58">
-        <v>0.999636678671479</v>
+        <v>0.999842871750858</v>
       </c>
       <c r="U112" t="n" s="58">
-        <v>0.9995740174174442</v>
+        <v>0.9998146594594177</v>
       </c>
       <c r="V112" t="n" s="58">
-        <v>0.813174937264336</v>
+        <v>0.8420171285313243</v>
       </c>
       <c r="W112" t="n" s="58">
-        <v>0.9996140768503213</v>
+        <v>0.9998335919388477</v>
       </c>
       <c r="X112" t="n" s="58">
-        <v>0.9995290691586409</v>
+        <v>0.9997952792053393</v>
       </c>
       <c r="Y112" t="n" s="58">
-        <v>0.9994694994010843</v>
+        <v>0.9997672659428367</v>
       </c>
       <c r="Z112" t="n" s="58">
-        <v>0.6269908386627041</v>
+        <v>0.6843350101280313</v>
       </c>
       <c r="AA112" t="n" s="58">
-        <v>0.8439768537874623</v>
+        <v>0.9306726792562359</v>
       </c>
       <c r="AB112" t="n" s="58">
-        <v>0.7816733075410237</v>
+        <v>0.898097024298664</v>
       </c>
       <c r="AC112" t="n" s="58">
-        <v>0.7603052274460088</v>
+        <v>0.883701933180281</v>
       </c>
       <c r="AD112" t="n" s="58">
-        <v>0.21349143539207516</v>
+        <v>0.3487079285053287</v>
       </c>
       <c r="AE112" s="58"/>
     </row>
@@ -10316,76 +10316,76 @@
         <v>1.0</v>
       </c>
       <c r="G113" t="n" s="58">
-        <v>0.3190075391734651</v>
+        <v>0.3050800113015074</v>
       </c>
       <c r="H113" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="I113" t="n" s="58">
-        <v>0.43586476044654965</v>
+        <v>0.4363646031060342</v>
       </c>
       <c r="J113" t="n" s="58">
-        <v>0.33517861258475884</v>
+        <v>0.320718135626553</v>
       </c>
       <c r="K113" t="n" s="58">
-        <v>0.43828066924225845</v>
+        <v>0.4309152052561758</v>
       </c>
       <c r="L113" t="n" s="58">
-        <v>0.3983016426433601</v>
+        <v>0.3912819628080176</v>
       </c>
       <c r="M113" t="n" s="58">
-        <v>0.3215944680254404</v>
+        <v>0.2983009366392854</v>
       </c>
       <c r="N113" t="n" s="58">
-        <v>0.333913888131882</v>
+        <v>0.3104317261223982</v>
       </c>
       <c r="O113" t="n" s="58">
-        <v>0.3215944680254404</v>
+        <v>0.2983009366392854</v>
       </c>
       <c r="P113" t="n" s="58">
-        <v>0.3338981377167952</v>
+        <v>0.3098159407374468</v>
       </c>
       <c r="Q113" t="n" s="58">
-        <v>0.25378313017213594</v>
+        <v>0.20253414303012146</v>
       </c>
       <c r="R113" t="n" s="58">
-        <v>0.25378313017213594</v>
+        <v>0.20253414303012146</v>
       </c>
       <c r="S113" t="n" s="58">
-        <v>0.2971900803867276</v>
+        <v>0.9634527070141263</v>
       </c>
       <c r="T113" t="n" s="58">
-        <v>0.29554434453709066</v>
+        <v>0.9629943328747713</v>
       </c>
       <c r="U113" t="n" s="58">
-        <v>0.13958749976473286</v>
+        <v>0.4037214766532316</v>
       </c>
       <c r="V113" t="n" s="58">
-        <v>0.04686442587414498</v>
+        <v>0.10766495126409734</v>
       </c>
       <c r="W113" t="n" s="58">
-        <v>0.28845502754333124</v>
+        <v>0.9598245923734197</v>
       </c>
       <c r="X113" t="n" s="58">
-        <v>0.2813328812147721</v>
+        <v>0.9564641925581205</v>
       </c>
       <c r="Y113" t="n" s="58">
-        <v>0.04853366472730409</v>
+        <v>0.07587095650775798</v>
       </c>
       <c r="Z113" t="n" s="58">
-        <v>0.016161026668763626</v>
+        <v>0.012176035476125207</v>
       </c>
       <c r="AA113" t="n" s="58">
-        <v>0.15258662195600595</v>
+        <v>0.4945268807666364</v>
       </c>
       <c r="AB113" t="n" s="58">
-        <v>0.05281879408834165</v>
+        <v>0.15166636891588176</v>
       </c>
       <c r="AC113" t="n" s="58">
-        <v>0.0039654677295033695</v>
+        <v>0.00321034175307775</v>
       </c>
       <c r="AD113" t="n" s="58">
-        <v>7.695135828161299E-4</v>
+        <v>3.155111940161181E-4</v>
       </c>
       <c r="AE113" s="58"/>
     </row>
@@ -11573,7 +11573,7 @@
         <v>1.0</v>
       </c>
       <c r="F128" t="n" s="58">
-        <v>1.0</v>
+        <v>0.2901673448891565</v>
       </c>
       <c r="G128" t="n" s="58">
         <v>1.0</v>
@@ -11582,28 +11582,28 @@
         <v>1.0</v>
       </c>
       <c r="I128" t="n" s="58">
-        <v>0.42514293243096984</v>
+        <v>0.42666683712104525</v>
       </c>
       <c r="J128" t="n" s="58">
         <v>1.0</v>
       </c>
       <c r="K128" t="n" s="58">
-        <v>0.4408788957540634</v>
+        <v>0.44177513152920095</v>
       </c>
       <c r="L128" t="n" s="58">
-        <v>1.0</v>
+        <v>0.41520493772887607</v>
       </c>
       <c r="M128" t="n" s="58">
-        <v>1.0</v>
+        <v>0.3558541432837508</v>
       </c>
       <c r="N128" t="n" s="58">
-        <v>1.0</v>
+        <v>0.36661370877222904</v>
       </c>
       <c r="O128" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35585414328375087</v>
       </c>
       <c r="P128" t="n" s="58">
-        <v>1.0</v>
+        <v>0.35184834386703856</v>
       </c>
       <c r="Q128" t="n" s="58">
         <v>1.0</v>
@@ -11612,40 +11612,40 @@
         <v>1.0</v>
       </c>
       <c r="S128" t="n" s="58">
-        <v>0.9999793692739088</v>
+        <v>0.9999826900628066</v>
       </c>
       <c r="T128" t="n" s="58">
-        <v>0.9999729528142062</v>
+        <v>0.9999773064173659</v>
       </c>
       <c r="U128" t="n" s="58">
-        <v>0.10738381716330665</v>
+        <v>0.10677969734401349</v>
       </c>
       <c r="V128" t="n" s="58">
-        <v>0.004985002812485501</v>
+        <v>0.004959258407005674</v>
       </c>
       <c r="W128" t="n" s="58">
-        <v>0.9941395231720895</v>
+        <v>0.9950828446189535</v>
       </c>
       <c r="X128" t="n" s="58">
-        <v>0.9860490083452116</v>
+        <v>0.9882946054219384</v>
       </c>
       <c r="Y128" t="n" s="58">
-        <v>0.0024785512735944425</v>
+        <v>0.00273518948307338</v>
       </c>
       <c r="Z128" t="n" s="58">
-        <v>3.439054192585959E-6</v>
+        <v>4.183228065304691E-6</v>
       </c>
       <c r="AA128" t="n" s="58">
-        <v>0.5858941264745853</v>
+        <v>0.6176288788461906</v>
       </c>
       <c r="AB128" t="n" s="58">
-        <v>0.19418077009041304</v>
+        <v>0.2554332924252404</v>
       </c>
       <c r="AC128" t="n" s="58">
-        <v>1.9505859210378427E-5</v>
+        <v>3.8909440189411285E-5</v>
       </c>
       <c r="AD128" t="n" s="58">
-        <v>6.525316194621714E-9</v>
+        <v>1.8771660865978985E-8</v>
       </c>
       <c r="AE128" s="58"/>
     </row>
